--- a/NformTester/NformTester/Keywordscripts/600.30.30.60_UpAndDownArrowEnabled.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.60_UpAndDownArrowEnabled.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7378" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7390" uniqueCount="822">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3960,7 +3960,35 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4685,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4904,7 +4932,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -5378,14 +5406,12 @@
         <v>623</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>624</v>
+        <v>99</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -5398,25 +5424,25 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
+      <c r="D24" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15">
@@ -5427,20 +5453,16 @@
         <v>785</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>818</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5456,23 +5478,19 @@
         <v>785</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="J26" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -5487,23 +5505,17 @@
         <v>785</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>631</v>
+        <v>174</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="J27" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -5530,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -5562,7 +5574,7 @@
         <v>821</v>
       </c>
       <c r="J29" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -5593,7 +5605,7 @@
         <v>821</v>
       </c>
       <c r="J30" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -5612,64 +5624,87 @@
         <v>626</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>627</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="11"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="15">
+    <row r="32" spans="1:15">
       <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="5"/>
+      <c r="D32" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="J32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:15">
       <c r="C33" s="3">
         <v>32</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="J33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:15">
       <c r="C34" s="3">
         <v>33</v>
       </c>
@@ -5677,73 +5712,67 @@
         <v>785</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="11"/>
+      <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:15" ht="15">
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>793</v>
-      </c>
+      <c r="D35" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:15">
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
+      <c r="D36" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
@@ -5751,145 +5780,145 @@
         <v>785</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:15">
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="7"/>
+      <c r="E38" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>793</v>
+      </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="8"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:15">
       <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="8"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:15">
       <c r="C40" s="3">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="3:14" ht="14.25">
+    <row r="41" spans="3:15">
       <c r="C41" s="3">
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>796</v>
+        <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:15">
       <c r="C42" s="3">
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>585</v>
+        <v>785</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:15">
       <c r="C43" s="3">
         <v>42</v>
       </c>
@@ -5900,22 +5929,96 @@
         <v>796</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="8"/>
     </row>
+    <row r="44" spans="3:15" ht="14.25">
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N43">
+  <conditionalFormatting sqref="N2:N46">
     <cfRule type="cellIs" dxfId="1" priority="77" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5924,16 +6027,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:G43 G2:G39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G44:G46 G2:G42">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D42 D23:D34 D8:D21 D3:D4">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D39 D3:D4 D8:D21 D23:D31">
-      <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E46">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.30.30.60_UpAndDownArrowEnabled.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.60_UpAndDownArrowEnabled.xlsx
@@ -3706,19 +3706,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"UPS_10.146.83.13"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"UPS_10.146.83.10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3960,35 +3960,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4715,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5542,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -5568,10 +5540,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J29" s="3" t="b">
         <v>0</v>
@@ -5599,10 +5571,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J30" s="3" t="b">
         <v>1</v>
@@ -5633,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -5659,10 +5631,10 @@
         <v>7</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J32" s="3" t="b">
         <v>1</v>
@@ -5690,10 +5662,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J33" s="3" t="b">
         <v>0</v>
